--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a2_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a2_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6595744680851063</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C3">
-        <v>0.498960498960499</v>
+        <v>0.5032119914346895</v>
       </c>
       <c r="D3">
-        <v>0.536036036036036</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="E3">
-        <v>0.4948665297741273</v>
+        <v>0.5031712473572939</v>
       </c>
       <c r="F3">
-        <v>0.4884792626728111</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="G3">
-        <v>0.5010141987829615</v>
+        <v>0.5010482180293501</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5492957746478874</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="C4">
-        <v>0.484251968503937</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.6302521008403361</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="E4">
-        <v>0.4871099050203528</v>
+        <v>0.4930939226519337</v>
       </c>
       <c r="F4">
-        <v>0.5964912280701754</v>
+        <v>0.5826771653543307</v>
       </c>
       <c r="G4">
-        <v>0.5053191489361702</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="H4">
-        <v>0.506</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5324675324675324</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C5">
-        <v>0.4945255474452555</v>
+        <v>0.4934579439252336</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="E5">
-        <v>0.4737484737484737</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.620253164556962</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="G5">
-        <v>0.4819277108433735</v>
+        <v>0.4842233009708738</v>
       </c>
       <c r="H5">
-        <v>0.524</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5411764705882353</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="C6">
-        <v>0.4867549668874172</v>
+        <v>0.4892915980230643</v>
       </c>
       <c r="D6">
-        <v>0.5362318840579711</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="E6">
-        <v>0.4871194379391101</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="F6">
-        <v>0.6388888888888888</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="G6">
-        <v>0.4853458382180539</v>
+        <v>0.4907834101382488</v>
       </c>
       <c r="H6">
-        <v>0.518</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5569620253164557</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C7">
-        <v>0.4862385321100918</v>
+        <v>0.4962292609351433</v>
       </c>
       <c r="D7">
-        <v>0.5921052631578947</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="E7">
-        <v>0.4859154929577465</v>
+        <v>0.4906542056074766</v>
       </c>
       <c r="F7">
-        <v>0.5522388059701493</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="G7">
-        <v>0.4853458382180539</v>
+        <v>0.4919908466819222</v>
       </c>
       <c r="H7">
-        <v>0.524</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6046511627906976</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="C8">
-        <v>0.4887005649717514</v>
+        <v>0.5013736263736264</v>
       </c>
       <c r="D8">
-        <v>0.5466666666666666</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="E8">
-        <v>0.4903614457831325</v>
+        <v>0.485414235705951</v>
       </c>
       <c r="F8">
-        <v>0.5974025974025974</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="G8">
-        <v>0.4833729216152019</v>
+        <v>0.4947856315179606</v>
       </c>
       <c r="H8">
-        <v>0.542</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6025641025641025</v>
+        <v>0.5375</v>
       </c>
       <c r="C9">
-        <v>0.4889178617992178</v>
+        <v>0.4973958333333333</v>
       </c>
       <c r="D9">
-        <v>0.5222222222222223</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="E9">
-        <v>0.4946364719904648</v>
+        <v>0.4803804994054697</v>
       </c>
       <c r="F9">
-        <v>0.5057471264367817</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="G9">
-        <v>0.4850657108721625</v>
+        <v>0.4988235294117647</v>
       </c>
       <c r="H9">
-        <v>0.546</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5795454545454546</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="C10">
-        <v>0.4856115107913669</v>
+        <v>0.4835566382460414</v>
       </c>
       <c r="D10">
-        <v>0.5466666666666666</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="E10">
-        <v>0.4952153110047847</v>
+        <v>0.4794685990338164</v>
       </c>
       <c r="F10">
-        <v>0.4938271604938271</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="G10">
-        <v>0.4851013110846246</v>
+        <v>0.5047732696897375</v>
       </c>
       <c r="H10">
-        <v>0.5659999999999999</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>0.4936120789779326</v>
+        <v>0.4799081515499426</v>
       </c>
       <c r="D11">
-        <v>0.5555555555555556</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="E11">
-        <v>0.4866504854368932</v>
+        <v>0.4822521419828641</v>
       </c>
       <c r="F11">
-        <v>0.5074626865671642</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="G11">
-        <v>0.4865525672371638</v>
+        <v>0.5018315018315018</v>
       </c>
       <c r="H11">
-        <v>0.5639999999999999</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6444444444444445</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C12">
-        <v>0.4901531728665208</v>
+        <v>0.4778378378378378</v>
       </c>
       <c r="D12">
-        <v>0.4736842105263158</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="E12">
-        <v>0.4854368932038835</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="F12">
-        <v>0.5232558139534884</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G12">
-        <v>0.4927710843373494</v>
+        <v>0.4975308641975308</v>
       </c>
       <c r="H12">
-        <v>0.542</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5679012345679012</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C13">
-        <v>0.4875776397515528</v>
+        <v>0.4704663212435233</v>
       </c>
       <c r="D13">
-        <v>0.5111111111111111</v>
+        <v>0.625</v>
       </c>
       <c r="E13">
-        <v>0.4864864864864865</v>
+        <v>0.5024691358024691</v>
       </c>
       <c r="F13">
-        <v>0.5641025641025641</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="G13">
-        <v>0.4860267314702308</v>
+        <v>0.5074257425742574</v>
       </c>
       <c r="H13">
-        <v>0.548</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5301204819277109</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="C14">
-        <v>0.4946445959104187</v>
+        <v>0.4768339768339768</v>
       </c>
       <c r="D14">
-        <v>0.5106382978723404</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E14">
-        <v>0.4889434889434889</v>
+        <v>0.4993939393939394</v>
       </c>
       <c r="F14">
-        <v>0.5730337078651685</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="G14">
-        <v>0.4842615012106538</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="H14">
-        <v>0.546</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5632183908045977</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="C15">
-        <v>0.4972170686456401</v>
+        <v>0.4728971962616823</v>
       </c>
       <c r="D15">
-        <v>0.524390243902439</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="E15">
-        <v>0.4938423645320197</v>
+        <v>0.5073349633251834</v>
       </c>
       <c r="F15">
-        <v>0.4693877551020408</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="G15">
-        <v>0.4853300733496332</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="H15">
-        <v>0.528</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5360824742268041</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>0.4982332155477032</v>
+        <v>0.4836138175376439</v>
       </c>
       <c r="D16">
-        <v>0.5662650602409639</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E16">
-        <v>0.4897713598074609</v>
+        <v>0.5139056831922612</v>
       </c>
       <c r="F16">
-        <v>0.4444444444444444</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G16">
-        <v>0.4871165644171779</v>
+        <v>0.5144578313253012</v>
       </c>
       <c r="H16">
-        <v>0.526</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5643564356435643</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0.4962025316455696</v>
       </c>
       <c r="D17">
-        <v>0.5168539325842697</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E17">
-        <v>0.4842995169082125</v>
+        <v>0.5158536585365854</v>
       </c>
       <c r="F17">
-        <v>0.6049382716049383</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G17">
-        <v>0.4884287454323995</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="H17">
-        <v>0.516</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5353535353535354</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="C18">
-        <v>0.4959216965742251</v>
+        <v>0.4972419227738377</v>
       </c>
       <c r="D18">
-        <v>0.5742574257425742</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="E18">
-        <v>0.4859926918392204</v>
+        <v>0.5077105575326216</v>
       </c>
       <c r="F18">
-        <v>0.6265060240963856</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="G18">
-        <v>0.4825511432009627</v>
+        <v>0.5125448028673835</v>
       </c>
       <c r="H18">
-        <v>0.518</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6020408163265306</v>
+        <v>0.6632653061224489</v>
       </c>
       <c r="C19">
-        <v>0.5038940809968847</v>
+        <v>0.4915902140672783</v>
       </c>
       <c r="D19">
-        <v>0.620253164556962</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="E19">
-        <v>0.4767156862745098</v>
+        <v>0.5029797377830751</v>
       </c>
       <c r="F19">
-        <v>0.5164835164835165</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G19">
-        <v>0.4808153477218226</v>
+        <v>0.5101796407185629</v>
       </c>
       <c r="H19">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6195652173913043</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="C20">
-        <v>0.5011269722013524</v>
+        <v>0.4900808229243204</v>
       </c>
       <c r="D20">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="E20">
+        <v>0.4994110718492344</v>
+      </c>
+      <c r="F20">
+        <v>0.5897435897435898</v>
+      </c>
+      <c r="G20">
+        <v>0.5023640661938534</v>
+      </c>
+      <c r="H20">
         <v>0.5</v>
-      </c>
-      <c r="E20">
-        <v>0.4763636363636364</v>
-      </c>
-      <c r="F20">
-        <v>0.6067415730337079</v>
-      </c>
-      <c r="G20">
-        <v>0.4932349323493235</v>
-      </c>
-      <c r="H20">
-        <v>0.486</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6470588235294118</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C21">
-        <v>0.5032304379038047</v>
+        <v>0.4881450488145049</v>
       </c>
       <c r="D21">
-        <v>0.4615384615384616</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="E21">
-        <v>0.4811205846528623</v>
+        <v>0.4952830188679245</v>
       </c>
       <c r="F21">
-        <v>0.5463917525773195</v>
+        <v>0.55</v>
       </c>
       <c r="G21">
-        <v>0.4816176470588235</v>
+        <v>0.5029377203290247</v>
       </c>
       <c r="H21">
-        <v>0.482</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.575</v>
+        <v>0.6219512195121951</v>
       </c>
       <c r="C22">
-        <v>0.5058661145617668</v>
+        <v>0.4973404255319149</v>
       </c>
       <c r="D22">
-        <v>0.4230769230769231</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="E22">
-        <v>0.4749082007343941</v>
+        <v>0.4924154025670945</v>
       </c>
       <c r="F22">
-        <v>0.5164835164835165</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="G22">
-        <v>0.4907521578298397</v>
+        <v>0.5023529411764706</v>
       </c>
       <c r="H22">
-        <v>0.472</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5824175824175825</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="C23">
-        <v>0.5099734042553191</v>
+        <v>0.4983922829581994</v>
       </c>
       <c r="D23">
-        <v>0.4090909090909091</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E23">
-        <v>0.4726609963547995</v>
+        <v>0.4923439340400471</v>
       </c>
       <c r="F23">
-        <v>0.5869565217391305</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="G23">
-        <v>0.491358024691358</v>
+        <v>0.4994082840236687</v>
       </c>
       <c r="H23">
-        <v>0.474</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6041666666666666</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="C24">
-        <v>0.513251454427925</v>
+        <v>0.4990712074303406</v>
       </c>
       <c r="D24">
-        <v>0.5106382978723404</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="E24">
-        <v>0.4644607843137255</v>
+        <v>0.4899408284023669</v>
       </c>
       <c r="F24">
-        <v>0.6162790697674418</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="G24">
-        <v>0.4895448954489545</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="H24">
-        <v>0.472</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.59</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="C25">
-        <v>0.5109170305676856</v>
+        <v>0.50210716435882</v>
       </c>
       <c r="D25">
-        <v>0.4534883720930232</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E25">
-        <v>0.4556500607533414</v>
+        <v>0.4916067146282974</v>
       </c>
       <c r="F25">
-        <v>0.5638297872340425</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="G25">
-        <v>0.4837545126353791</v>
+        <v>0.4832935560859188</v>
       </c>
       <c r="H25">
-        <v>0.476</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6634615384615384</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C26">
-        <v>0.5108043217286915</v>
+        <v>0.500875656742557</v>
       </c>
       <c r="D26">
-        <v>0.472972972972973</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E26">
-        <v>0.4532544378698225</v>
+        <v>0.4813477737665463</v>
       </c>
       <c r="F26">
-        <v>0.5600000000000001</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="G26">
-        <v>0.4886499402628435</v>
+        <v>0.4818401937046005</v>
       </c>
       <c r="H26">
-        <v>0.476</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C27">
-        <v>0.5107746068724519</v>
+        <v>0.5033745781777278</v>
       </c>
       <c r="D27">
-        <v>0.5303030303030303</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="E27">
-        <v>0.4518779342723005</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="F27">
-        <v>0.5733333333333334</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G27">
-        <v>0.491186839012926</v>
+        <v>0.4854014598540146</v>
       </c>
       <c r="H27">
-        <v>0.474</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6470588235294118</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="C28">
-        <v>0.51171875</v>
+        <v>0.5035616438356164</v>
       </c>
       <c r="D28">
-        <v>0.4473684210526316</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="E28">
-        <v>0.450354609929078</v>
+        <v>0.4731051344743276</v>
       </c>
       <c r="F28">
-        <v>0.5769230769230769</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G28">
-        <v>0.4946364719904648</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="H28">
-        <v>0.474</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5729166666666666</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="C29">
-        <v>0.5122083559413999</v>
+        <v>0.5015856236786469</v>
       </c>
       <c r="D29">
-        <v>0.4605263157894737</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="E29">
-        <v>0.4555288461538461</v>
+        <v>0.4771634615384616</v>
       </c>
       <c r="F29">
-        <v>0.5443037974683544</v>
+        <v>0.6288659793814433</v>
       </c>
       <c r="G29">
-        <v>0.4939759036144578</v>
+        <v>0.4830917874396135</v>
       </c>
       <c r="H29">
-        <v>0.474</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6292134831460674</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C30">
-        <v>0.5175718849840255</v>
+        <v>0.5005149330587023</v>
       </c>
       <c r="D30">
-        <v>0.4831460674157304</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="E30">
-        <v>0.4544349939246659</v>
+        <v>0.4795673076923077</v>
       </c>
       <c r="F30">
-        <v>0.4588235294117647</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="G30">
-        <v>0.48721071863581</v>
+        <v>0.482843137254902</v>
       </c>
       <c r="H30">
-        <v>0.49</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6395348837209303</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="C31">
-        <v>0.5162790697674419</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="D31">
-        <v>0.4239130434782609</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="E31">
-        <v>0.4443069306930693</v>
+        <v>0.4797136038186158</v>
       </c>
       <c r="F31">
-        <v>0.51</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.4839901477832512</v>
+        <v>0.4890243902439024</v>
       </c>
       <c r="H31">
-        <v>0.484</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6511627906976745</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="C32">
-        <v>0.5160481444332999</v>
+        <v>0.4982784062961141</v>
       </c>
       <c r="D32">
-        <v>0.4574468085106383</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="E32">
-        <v>0.446078431372549</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="F32">
-        <v>0.6153846153846154</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="G32">
-        <v>0.4839108910891089</v>
+        <v>0.4884004884004884</v>
       </c>
       <c r="H32">
-        <v>0.478</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6049382716049383</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C33">
-        <v>0.5136186770428015</v>
+        <v>0.4973696795791487</v>
       </c>
       <c r="D33">
-        <v>0.5161290322580645</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E33">
-        <v>0.4401451027811367</v>
+        <v>0.4878345498783455</v>
       </c>
       <c r="F33">
-        <v>0.6145833333333334</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="G33">
-        <v>0.4749082007343941</v>
+        <v>0.4831730769230769</v>
       </c>
       <c r="H33">
-        <v>0.48</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5853658536585366</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="C34">
-        <v>0.5150943396226415</v>
+        <v>0.4932400932400932</v>
       </c>
       <c r="D34">
-        <v>0.573170731707317</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E34">
-        <v>0.4421686746987952</v>
+        <v>0.4969400244798042</v>
       </c>
       <c r="F34">
-        <v>0.5842696629213483</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="G34">
-        <v>0.4824667472793229</v>
+        <v>0.4873341375150784</v>
       </c>
       <c r="H34">
-        <v>0.472</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6097560975609756</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="C35">
-        <v>0.51441647597254</v>
+        <v>0.491156462585034</v>
       </c>
       <c r="D35">
-        <v>0.5375</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E35">
-        <v>0.4483985765124555</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <v>0.4520547945205479</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="G35">
-        <v>0.4874551971326165</v>
+        <v>0.4957882069795427</v>
       </c>
       <c r="H35">
-        <v>0.466</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.589041095890411</v>
+        <v>0.6836734693877551</v>
       </c>
       <c r="C36">
-        <v>0.5116696588868941</v>
+        <v>0.4916299559471365</v>
       </c>
       <c r="D36">
-        <v>0.5671641791044776</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="E36">
-        <v>0.455421686746988</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
-        <v>0.4027777777777778</v>
+        <v>0.475</v>
       </c>
       <c r="G36">
-        <v>0.4880668257756563</v>
+        <v>0.4873949579831933</v>
       </c>
       <c r="H36">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5443037974683544</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="C37">
-        <v>0.5119513255106476</v>
+        <v>0.4903059026281775</v>
       </c>
       <c r="D37">
-        <v>0.6</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E37">
-        <v>0.4607142857142857</v>
+        <v>0.5106888361045131</v>
       </c>
       <c r="F37">
-        <v>0.4285714285714285</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="G37">
-        <v>0.485645933014354</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="H37">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5604395604395604</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C38">
-        <v>0.5125371865703358</v>
+        <v>0.4914046121593291</v>
       </c>
       <c r="D38">
-        <v>0.5789473684210527</v>
+        <v>0.5875</v>
       </c>
       <c r="E38">
-        <v>0.460984393757503</v>
+        <v>0.5113500597371565</v>
       </c>
       <c r="F38">
-        <v>0.4266666666666667</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="G38">
-        <v>0.4813925570228091</v>
+        <v>0.4903614457831325</v>
       </c>
       <c r="H38">
-        <v>0.502</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6224489795918368</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="C39">
-        <v>0.5125208681135225</v>
+        <v>0.4942716857610475</v>
       </c>
       <c r="D39">
-        <v>0.5394736842105263</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="E39">
-        <v>0.4606205250596659</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="F39">
-        <v>0.4342105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="G39">
-        <v>0.4773809523809524</v>
+        <v>0.4885954381752701</v>
       </c>
       <c r="H39">
-        <v>0.502</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5436893203883495</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C40">
-        <v>0.5106382978723404</v>
+        <v>0.492776886035313</v>
       </c>
       <c r="D40">
-        <v>0.4810126582278481</v>
+        <v>0.5760869565217391</v>
       </c>
       <c r="E40">
-        <v>0.4665071770334928</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="F40">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G40">
-        <v>0.4736842105263158</v>
+        <v>0.4826762246117085</v>
       </c>
       <c r="H40">
-        <v>0.494</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5600000000000001</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C41">
-        <v>0.5134484142914492</v>
+        <v>0.4930911962100276</v>
       </c>
       <c r="D41">
-        <v>0.4675324675324675</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="E41">
-        <v>0.4632086851628468</v>
+        <v>0.5067650676506765</v>
       </c>
       <c r="F41">
-        <v>0.5135135135135135</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G41">
-        <v>0.4639423076923077</v>
+        <v>0.4733009708737864</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6162790697674418</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C42">
-        <v>0.5115913555992141</v>
+        <v>0.4918856259659969</v>
       </c>
       <c r="D42">
-        <v>0.4936708860759494</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E42">
-        <v>0.4600484261501211</v>
+        <v>0.5054282267792521</v>
       </c>
       <c r="F42">
-        <v>0.5555555555555556</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="G42">
-        <v>0.470517448856799</v>
+        <v>0.4785714285714286</v>
       </c>
       <c r="H42">
-        <v>0.494</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6436781609195402</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="C43">
-        <v>0.5108986615678777</v>
+        <v>0.4937946596464836</v>
       </c>
       <c r="D43">
-        <v>0.5568181818181818</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="E43">
-        <v>0.4613526570048309</v>
+        <v>0.5023866348448688</v>
       </c>
       <c r="F43">
-        <v>0.5698924731182796</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="G43">
-        <v>0.4757869249394673</v>
+        <v>0.4826347305389221</v>
       </c>
       <c r="H43">
-        <v>0.492</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5955056179775281</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="C44">
-        <v>0.5082458770614693</v>
+        <v>0.4957705038617138</v>
       </c>
       <c r="D44">
-        <v>0.5056179775280899</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="E44">
-        <v>0.4641555285540705</v>
+        <v>0.5065398335315101</v>
       </c>
       <c r="F44">
-        <v>0.5108695652173914</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G44">
-        <v>0.4755501222493888</v>
+        <v>0.4810874704491725</v>
       </c>
       <c r="H44">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5974025974025974</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C45">
-        <v>0.5097247706422018</v>
+        <v>0.4964234620886981</v>
       </c>
       <c r="D45">
-        <v>0.5882352941176471</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E45">
-        <v>0.4715151515151515</v>
+        <v>0.5095011876484561</v>
       </c>
       <c r="F45">
-        <v>0.4725274725274725</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="G45">
-        <v>0.4872417982989065</v>
+        <v>0.4851720047449585</v>
       </c>
       <c r="H45">
-        <v>0.484</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6710526315789473</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C46">
-        <v>0.5103349964362082</v>
+        <v>0.4971731448763251</v>
       </c>
       <c r="D46">
-        <v>0.575</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E46">
-        <v>0.4662721893491124</v>
+        <v>0.5090252707581228</v>
       </c>
       <c r="F46">
-        <v>0.4186046511627907</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="G46">
-        <v>0.4928571428571429</v>
+        <v>0.4849939975990396</v>
       </c>
       <c r="H46">
-        <v>0.472</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6463414634146342</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="C47">
-        <v>0.5076976906927921</v>
+        <v>0.4977454040929587</v>
       </c>
       <c r="D47">
-        <v>0.5857142857142857</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="E47">
-        <v>0.4691211401425178</v>
+        <v>0.5091130012150669</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G47">
-        <v>0.4922341696535245</v>
+        <v>0.4796163069544365</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6578947368421053</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="C48">
-        <v>0.5062068965517241</v>
+        <v>0.4982935153583617</v>
       </c>
       <c r="D48">
-        <v>0.6470588235294118</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E48">
-        <v>0.4645006016847172</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="F48">
-        <v>0.4933333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G48">
-        <v>0.4934445768772348</v>
+        <v>0.4771084337349398</v>
       </c>
       <c r="H48">
-        <v>0.46</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5529411764705883</v>
+        <v>0.59375</v>
       </c>
       <c r="C49">
-        <v>0.5069280162216965</v>
+        <v>0.4971390104341972</v>
       </c>
       <c r="D49">
-        <v>0.6265060240963856</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
-        <v>0.4616306954436451</v>
+        <v>0.5054811205846529</v>
       </c>
       <c r="F49">
-        <v>0.5168539325842697</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G49">
-        <v>0.4897218863361548</v>
+        <v>0.4732360097323601</v>
       </c>
       <c r="H49">
-        <v>0.458</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5747126436781609</v>
+        <v>0.6125</v>
       </c>
       <c r="C50">
-        <v>0.5088245088245088</v>
+        <v>0.497364953886693</v>
       </c>
       <c r="D50">
-        <v>0.5783132530120482</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="E50">
-        <v>0.4672330097087379</v>
+        <v>0.4952038369304556</v>
       </c>
       <c r="F50">
-        <v>0.5294117647058824</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="G50">
-        <v>0.4945054945054945</v>
+        <v>0.4763636363636364</v>
       </c>
       <c r="H50">
-        <v>0.436</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6853932584269663</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="C51">
-        <v>0.5076622106292794</v>
+        <v>0.4969561038128805</v>
       </c>
       <c r="D51">
-        <v>0.5789473684210527</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="E51">
-        <v>0.4701670644391408</v>
+        <v>0.4952718676122931</v>
       </c>
       <c r="F51">
-        <v>0.5054945054945055</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="G51">
-        <v>0.4928229665071771</v>
+        <v>0.4776839565741858</v>
       </c>
       <c r="H51">
-        <v>0.45</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.625</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C52">
-        <v>0.5043310875842156</v>
+        <v>0.4968494013862634</v>
       </c>
       <c r="D52">
-        <v>0.6197183098591549</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E52">
-        <v>0.462378640776699</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="F52">
-        <v>0.5128205128205128</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="G52">
-        <v>0.4879518072289157</v>
+        <v>0.4748201438848921</v>
       </c>
       <c r="H52">
-        <v>0.474</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6451612903225806</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="C53">
-        <v>0.5058231035568146</v>
+        <v>0.4973594283939112</v>
       </c>
       <c r="D53">
-        <v>0.5875</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="E53">
-        <v>0.464922711058264</v>
+        <v>0.4887307236061684</v>
       </c>
       <c r="F53">
-        <v>0.5913978494623656</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="G53">
-        <v>0.4832134292565947</v>
+        <v>0.4712230215827338</v>
       </c>
       <c r="H53">
-        <v>0.482</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6190476190476191</v>
+        <v>0.575</v>
       </c>
       <c r="C54">
-        <v>0.5044989140552281</v>
+        <v>0.4945088468578401</v>
       </c>
       <c r="D54">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E54">
-        <v>0.4693140794223827</v>
+        <v>0.4855769230769231</v>
       </c>
       <c r="F54">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G54">
-        <v>0.4841075794621027</v>
+        <v>0.4819711538461539</v>
       </c>
       <c r="H54">
-        <v>0.484</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5975609756097561</v>
+        <v>0.5977011494252874</v>
       </c>
       <c r="C55">
-        <v>0.505624809972636</v>
+        <v>0.496844003606853</v>
       </c>
       <c r="D55">
-        <v>0.569620253164557</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="E55">
-        <v>0.4765906362545018</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="F55">
-        <v>0.4945054945054945</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="G55">
-        <v>0.4859241126070992</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5568181818181818</v>
+        <v>0.6022727272727273</v>
       </c>
       <c r="C56">
-        <v>0.5067304816033503</v>
+        <v>0.4942324755989352</v>
       </c>
       <c r="D56">
-        <v>0.5263157894736842</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E56">
-        <v>0.4771084337349398</v>
+        <v>0.4932844932844933</v>
       </c>
       <c r="F56">
-        <v>0.5263157894736842</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="G56">
-        <v>0.4902200488997555</v>
+        <v>0.4811205846528623</v>
       </c>
       <c r="H56">
-        <v>0.486</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,22 +1856,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6022727272727273</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="C57">
-        <v>0.5075287865367581</v>
+        <v>0.4959278650378127</v>
       </c>
       <c r="D57">
-        <v>0.4597701149425287</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E57">
-        <v>0.4757869249394673</v>
+        <v>0.4951573849878935</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="G57">
-        <v>0.483271375464684</v>
+        <v>0.4933171324422843</v>
       </c>
       <c r="H57">
         <v>0.484</v>
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6282051282051282</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="C58">
-        <v>0.5050798258345428</v>
+        <v>0.4947097512153274</v>
       </c>
       <c r="D58">
-        <v>0.5053763440860215</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="E58">
-        <v>0.4854014598540146</v>
+        <v>0.4877192982456141</v>
       </c>
       <c r="F58">
-        <v>0.5494505494505495</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G58">
-        <v>0.4835164835164835</v>
+        <v>0.5041420118343195</v>
       </c>
       <c r="H58">
-        <v>0.484</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6987951807228916</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="C59">
-        <v>0.5055381993751775</v>
+        <v>0.4950939164564059</v>
       </c>
       <c r="D59">
-        <v>0.5747126436781609</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="E59">
-        <v>0.4789915966386555</v>
+        <v>0.4876615746180963</v>
       </c>
       <c r="F59">
-        <v>0.4642857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G59">
-        <v>0.4802867383512545</v>
+        <v>0.5005834305717619</v>
       </c>
       <c r="H59">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6195652173913043</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C60">
-        <v>0.5016741071428571</v>
+        <v>0.4958517699115044</v>
       </c>
       <c r="D60">
-        <v>0.5352112676056338</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E60">
-        <v>0.4758539458186101</v>
+        <v>0.4840613931523022</v>
       </c>
       <c r="F60">
-        <v>0.5441176470588235</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="G60">
-        <v>0.4824355971896955</v>
+        <v>0.4982415005861665</v>
       </c>
       <c r="H60">
-        <v>0.486</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.686046511627907</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C61">
-        <v>0.5041299559471366</v>
+        <v>0.4948172394980906</v>
       </c>
       <c r="D61">
-        <v>0.6</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E61">
-        <v>0.4771929824561403</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="F61">
-        <v>0.5901639344262295</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="G61">
-        <v>0.4731934731934732</v>
+        <v>0.4958183990442055</v>
       </c>
       <c r="H61">
-        <v>0.488</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6636363636363637</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="C62">
-        <v>0.5025780189959295</v>
+        <v>0.4959742351046699</v>
       </c>
       <c r="D62">
-        <v>0.5694444444444444</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="E62">
-        <v>0.4840236686390533</v>
+        <v>0.4849578820697955</v>
       </c>
       <c r="F62">
-        <v>0.5882352941176471</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G62">
-        <v>0.4757396449704142</v>
+        <v>0.4903614457831325</v>
       </c>
       <c r="H62">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6597938144329897</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C63">
-        <v>0.503494623655914</v>
+        <v>0.496551724137931</v>
       </c>
       <c r="D63">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="E63">
+        <v>0.4908869987849332</v>
+      </c>
+      <c r="F63">
         <v>0.5783132530120482</v>
       </c>
-      <c r="E63">
-        <v>0.4928057553956834</v>
-      </c>
-      <c r="F63">
-        <v>0.5795454545454546</v>
-      </c>
       <c r="G63">
-        <v>0.4773809523809524</v>
+        <v>0.4938875305623472</v>
       </c>
       <c r="H63">
-        <v>0.492</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6122448979591837</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="C64">
-        <v>0.5044831223628692</v>
+        <v>0.4966092853416797</v>
       </c>
       <c r="D64">
-        <v>0.4761904761904762</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E64">
-        <v>0.4970059880239521</v>
+        <v>0.4993865030674847</v>
       </c>
       <c r="F64">
-        <v>0.4698795180722892</v>
+        <v>0.6</v>
       </c>
       <c r="G64">
-        <v>0.4698795180722892</v>
+        <v>0.4903614457831325</v>
       </c>
       <c r="H64">
-        <v>0.486</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6122448979591837</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="C65">
-        <v>0.5057291666666667</v>
+        <v>0.4953727506426735</v>
       </c>
       <c r="D65">
-        <v>0.5116279069767442</v>
+        <v>0.5</v>
       </c>
       <c r="E65">
-        <v>0.5042424242424243</v>
+        <v>0.4908869987849332</v>
       </c>
       <c r="F65">
-        <v>0.4352941176470588</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="G65">
-        <v>0.4757869249394673</v>
+        <v>0.4862932061978546</v>
       </c>
       <c r="H65">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6382978723404256</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="C66">
-        <v>0.5052658618032366</v>
+        <v>0.4960809102402023</v>
       </c>
       <c r="D66">
-        <v>0.5306122448979592</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E66">
-        <v>0.4938725490196079</v>
+        <v>0.4891566265060241</v>
       </c>
       <c r="F66">
-        <v>0.4318181818181818</v>
+        <v>0.6</v>
       </c>
       <c r="G66">
-        <v>0.4767726161369193</v>
+        <v>0.4887307236061684</v>
       </c>
       <c r="H66">
-        <v>0.472</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5625</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="C67">
-        <v>0.5049329623071085</v>
+        <v>0.4955</v>
       </c>
       <c r="D67">
-        <v>0.5833333333333334</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="E67">
-        <v>0.4845869297163995</v>
+        <v>0.4818401937046005</v>
       </c>
       <c r="F67">
-        <v>0.5287356321839081</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="G67">
-        <v>0.4725943970767357</v>
+        <v>0.4940617577197149</v>
       </c>
       <c r="H67">
-        <v>0.472</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5842696629213483</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="C68">
-        <v>0.5059790732436472</v>
+        <v>0.4936896807720861</v>
       </c>
       <c r="D68">
-        <v>0.5757575757575758</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="E68">
-        <v>0.4817961165048544</v>
+        <v>0.4828009828009828</v>
       </c>
       <c r="F68">
-        <v>0.631578947368421</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G68">
-        <v>0.4705882352941176</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="H68">
-        <v>0.468</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5876288659793815</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="C69">
-        <v>0.5058968058968059</v>
+        <v>0.4942780618456294</v>
       </c>
       <c r="D69">
-        <v>0.5684210526315789</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E69">
-        <v>0.4846625766871165</v>
+        <v>0.4872417982989065</v>
       </c>
       <c r="F69">
-        <v>0.5507246376811594</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G69">
-        <v>0.4713603818615752</v>
+        <v>0.5006134969325153</v>
       </c>
       <c r="H69">
-        <v>0.47</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5760869565217391</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="C70">
-        <v>0.5042444821731749</v>
+        <v>0.4972335819100313</v>
       </c>
       <c r="D70">
-        <v>0.5625</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="E70">
-        <v>0.4896214896214896</v>
+        <v>0.4877750611246944</v>
       </c>
       <c r="F70">
-        <v>0.5294117647058824</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="G70">
-        <v>0.4745562130177515</v>
+        <v>0.5048899755501223</v>
       </c>
       <c r="H70">
-        <v>0.476</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5425531914893617</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="C71">
-        <v>0.5047801147227533</v>
+        <v>0.4973884140550807</v>
       </c>
       <c r="D71">
-        <v>0.6265060240963856</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E71">
-        <v>0.4854368932038835</v>
+        <v>0.4904076738609113</v>
       </c>
       <c r="F71">
-        <v>0.4714285714285714</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G71">
-        <v>0.4713603818615752</v>
+        <v>0.5</v>
       </c>
       <c r="H71">
-        <v>0.48</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.654320987654321</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C72">
-        <v>0.5053204067155356</v>
+        <v>0.497538100820633</v>
       </c>
       <c r="D72">
-        <v>0.5411764705882353</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E72">
-        <v>0.489051094890511</v>
+        <v>0.4892086330935252</v>
       </c>
       <c r="F72">
-        <v>0.527027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="G72">
-        <v>0.474251497005988</v>
+        <v>0.4934289127837515</v>
       </c>
       <c r="H72">
-        <v>0.486</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6125</v>
+        <v>0.59</v>
       </c>
       <c r="C73">
-        <v>0.5038470505945442</v>
+        <v>0.4982594569505686</v>
       </c>
       <c r="D73">
-        <v>0.5977011494252874</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="E73">
-        <v>0.5</v>
+        <v>0.4826762246117085</v>
       </c>
       <c r="F73">
-        <v>0.4418604651162791</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="G73">
-        <v>0.4738124238733252</v>
+        <v>0.4892344497607656</v>
       </c>
       <c r="H73">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.611764705882353</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="C74">
-        <v>0.5050667894979273</v>
+        <v>0.4978285714285715</v>
       </c>
       <c r="D74">
-        <v>0.5555555555555556</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="E74">
-        <v>0.4969325153374233</v>
+        <v>0.4825930372148859</v>
       </c>
       <c r="F74">
-        <v>0.4367816091954023</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="G74">
-        <v>0.4773561811505508</v>
+        <v>0.486810551558753</v>
       </c>
       <c r="H74">
-        <v>0.484</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.675</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C75">
-        <v>0.5044348419376847</v>
+        <v>0.4967290773742387</v>
       </c>
       <c r="D75">
-        <v>0.5056179775280899</v>
+        <v>0.5125</v>
       </c>
       <c r="E75">
-        <v>0.505521472392638</v>
+        <v>0.4850299401197605</v>
       </c>
       <c r="F75">
-        <v>0.475</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="G75">
-        <v>0.4770531400966184</v>
+        <v>0.4873341375150784</v>
       </c>
       <c r="H75">
-        <v>0.47</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2353,22 +2353,22 @@
         <v>0.6296296296296297</v>
       </c>
       <c r="C76">
-        <v>0.5032503922887245</v>
+        <v>0.4969939879759519</v>
       </c>
       <c r="D76">
-        <v>0.5287356321839081</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="E76">
-        <v>0.5096385542168674</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="F76">
-        <v>0.4383561643835616</v>
+        <v>0.5</v>
       </c>
       <c r="G76">
-        <v>0.4755661501787843</v>
+        <v>0.486682808716707</v>
       </c>
       <c r="H76">
-        <v>0.464</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6413043478260869</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C77">
-        <v>0.5053191489361702</v>
+        <v>0.4969365426695843</v>
       </c>
       <c r="D77">
-        <v>0.5357142857142857</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="E77">
-        <v>0.5078787878787879</v>
+        <v>0.4763593380614657</v>
       </c>
       <c r="F77">
-        <v>0.5194805194805194</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="G77">
-        <v>0.4714285714285714</v>
+        <v>0.4863905325443787</v>
       </c>
       <c r="H77">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5925925925925926</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C78">
-        <v>0.5042735042735043</v>
+        <v>0.4961022087483759</v>
       </c>
       <c r="D78">
-        <v>0.4761904761904762</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E78">
-        <v>0.50661853188929</v>
+        <v>0.4769775678866588</v>
       </c>
       <c r="F78">
-        <v>0.5058823529411764</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="G78">
-        <v>0.4630071599045346</v>
+        <v>0.4813925570228091</v>
       </c>
       <c r="H78">
-        <v>0.468</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5517241379310345</v>
+        <v>0.6132075471698113</v>
       </c>
       <c r="C79">
-        <v>0.5046366185033426</v>
+        <v>0.4942233632862644</v>
       </c>
       <c r="D79">
-        <v>0.55</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="E79">
-        <v>0.5041617122473246</v>
+        <v>0.4793875147232038</v>
       </c>
       <c r="F79">
-        <v>0.5</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="G79">
-        <v>0.4678571428571429</v>
+        <v>0.4779499404052444</v>
       </c>
       <c r="H79">
-        <v>0.466</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="C80">
-        <v>0.5055603079555175</v>
+        <v>0.4961880559085133</v>
       </c>
       <c r="D80">
-        <v>0.6056338028169014</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="E80">
-        <v>0.5078407720144753</v>
+        <v>0.4747356051703878</v>
       </c>
       <c r="F80">
-        <v>0.5466666666666666</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="G80">
-        <v>0.4678787878787879</v>
+        <v>0.4750593824228028</v>
       </c>
       <c r="H80">
-        <v>0.466</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="C81">
-        <v>0.5046590427784837</v>
+        <v>0.4973756036111694</v>
       </c>
       <c r="D81">
-        <v>0.5444444444444444</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E81">
-        <v>0.5121359223300971</v>
+        <v>0.4797546012269939</v>
       </c>
       <c r="F81">
-        <v>0.4456521739130435</v>
+        <v>0.6875</v>
       </c>
       <c r="G81">
-        <v>0.4670731707317073</v>
+        <v>0.4710947109471095</v>
       </c>
       <c r="H81">
-        <v>0.466</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5512820512820513</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C82">
-        <v>0.505953624399415</v>
+        <v>0.4964730290456432</v>
       </c>
       <c r="D82">
-        <v>0.5567010309278351</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="E82">
-        <v>0.5061274509803921</v>
+        <v>0.4889434889434889</v>
       </c>
       <c r="F82">
-        <v>0.4352941176470588</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G82">
-        <v>0.4736196319018405</v>
+        <v>0.4702233250620347</v>
       </c>
       <c r="H82">
-        <v>0.46</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5670103092783505</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C83">
-        <v>0.5063943894389439</v>
+        <v>0.4942575881870386</v>
       </c>
       <c r="D83">
-        <v>0.4893617021276596</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="E83">
-        <v>0.5067155067155067</v>
+        <v>0.48721071863581</v>
       </c>
       <c r="F83">
-        <v>0.5274725274725275</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="G83">
-        <v>0.4717208182912154</v>
+        <v>0.4847374847374847</v>
       </c>
       <c r="H83">
-        <v>0.46</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6057692307692307</v>
+        <v>0.6</v>
       </c>
       <c r="C84">
-        <v>0.5063420621931261</v>
+        <v>0.4923764992884733</v>
       </c>
       <c r="D84">
-        <v>0.5432098765432098</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E84">
-        <v>0.5133495145631068</v>
+        <v>0.48721071863581</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="G84">
-        <v>0.4715840386940749</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="H84">
-        <v>0.464</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6442307692307693</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C85">
-        <v>0.5049544994944388</v>
+        <v>0.4929831595829992</v>
       </c>
       <c r="D85">
-        <v>0.524390243902439</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="E85">
-        <v>0.503562945368171</v>
+        <v>0.4951807228915663</v>
       </c>
       <c r="F85">
-        <v>0.475</v>
+        <v>0.57</v>
       </c>
       <c r="G85">
-        <v>0.4626334519572954</v>
+        <v>0.4735576923076923</v>
       </c>
       <c r="H85">
-        <v>0.494</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.611764705882353</v>
+        <v>0.625</v>
       </c>
       <c r="C86">
-        <v>0.5041123370110331</v>
+        <v>0.4946322067594434</v>
       </c>
       <c r="D86">
-        <v>0.6</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="E86">
-        <v>0.5012165450121655</v>
+        <v>0.5006060606060606</v>
       </c>
       <c r="F86">
-        <v>0.569620253164557</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G86">
-        <v>0.4611650485436893</v>
+        <v>0.4661746617466175</v>
       </c>
       <c r="H86">
-        <v>0.502</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5930232558139535</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C87">
-        <v>0.5052381893654873</v>
+        <v>0.493516699410609</v>
       </c>
       <c r="D87">
-        <v>0.5520833333333334</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E87">
-        <v>0.4963414634146341</v>
+        <v>0.4951338199513382</v>
       </c>
       <c r="F87">
-        <v>0.5151515151515151</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="G87">
-        <v>0.4571078431372549</v>
+        <v>0.4614457831325301</v>
       </c>
       <c r="H87">
-        <v>0.502</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6179775280898876</v>
+        <v>0.6</v>
       </c>
       <c r="C88">
-        <v>0.5052775605942142</v>
+        <v>0.4929167475257132</v>
       </c>
       <c r="D88">
-        <v>0.5217391304347826</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="E88">
-        <v>0.5048899755501223</v>
+        <v>0.5036231884057971</v>
       </c>
       <c r="F88">
-        <v>0.4893617021276596</v>
+        <v>0.68</v>
       </c>
       <c r="G88">
-        <v>0.4620098039215687</v>
+        <v>0.4728588661037395</v>
       </c>
       <c r="H88">
-        <v>0.508</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5833333333333334</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="C89">
-        <v>0.5033855678080866</v>
+        <v>0.4951121334100058</v>
       </c>
       <c r="D89">
-        <v>0.5128205128205128</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E89">
-        <v>0.5072815533980582</v>
+        <v>0.5029797377830751</v>
       </c>
       <c r="F89">
-        <v>0.4130434782608696</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="G89">
-        <v>0.4635036496350365</v>
+        <v>0.4834905660377358</v>
       </c>
       <c r="H89">
-        <v>0.508</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5909090909090909</v>
+        <v>0.5922330097087378</v>
       </c>
       <c r="C90">
-        <v>0.5028768699654775</v>
+        <v>0.4934646713392688</v>
       </c>
       <c r="D90">
-        <v>0.6309523809523809</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="E90">
-        <v>0.5126353790613718</v>
+        <v>0.4976019184652278</v>
       </c>
       <c r="F90">
-        <v>0.5119047619047619</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G90">
-        <v>0.4651162790697674</v>
+        <v>0.4815695600475624</v>
       </c>
       <c r="H90">
-        <v>0.51</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.64</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="C91">
-        <v>0.5024733637747336</v>
+        <v>0.4932279909706546</v>
       </c>
       <c r="D91">
-        <v>0.6710526315789473</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="E91">
-        <v>0.5042424242424243</v>
+        <v>0.4945321992709599</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G91">
-        <v>0.4606060606060606</v>
+        <v>0.4693140794223827</v>
       </c>
       <c r="H91">
-        <v>0.498</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6458333333333334</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="C92">
-        <v>0.5013138138138138</v>
+        <v>0.492098903141848</v>
       </c>
       <c r="D92">
-        <v>0.5844155844155844</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="E92">
-        <v>0.5124555160142349</v>
+        <v>0.4945586457073761</v>
       </c>
       <c r="F92">
-        <v>0.5135135135135135</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="G92">
-        <v>0.4550898203592814</v>
+        <v>0.4686746987951807</v>
       </c>
       <c r="H92">
-        <v>0.514</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.625</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="C93">
-        <v>0.5012043727997035</v>
+        <v>0.4929188890932499</v>
       </c>
       <c r="D93">
-        <v>0.5733333333333334</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="E93">
-        <v>0.5193889541715628</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="F93">
-        <v>0.472972972972973</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="G93">
-        <v>0.4601873536299766</v>
+        <v>0.4811205846528623</v>
       </c>
       <c r="H93">
-        <v>0.518</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6179775280898876</v>
+        <v>0.6</v>
       </c>
       <c r="C94">
-        <v>0.5013758943313154</v>
+        <v>0.4928935860058309</v>
       </c>
       <c r="D94">
-        <v>0.5873015873015873</v>
+        <v>0.6288659793814433</v>
       </c>
       <c r="E94">
-        <v>0.5224586288416075</v>
+        <v>0.4921020656136088</v>
       </c>
       <c r="F94">
-        <v>0.5454545454545454</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="G94">
-        <v>0.4587264150943396</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="H94">
-        <v>0.512</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5647058823529412</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="C95">
-        <v>0.5018148820326679</v>
+        <v>0.4930517957047464</v>
       </c>
       <c r="D95">
-        <v>0.6024096385542169</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="E95">
-        <v>0.5159763313609468</v>
+        <v>0.4950738916256158</v>
       </c>
       <c r="F95">
-        <v>0.527027027027027</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="G95">
-        <v>0.4536817102137767</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H95">
-        <v>0.502</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4880952380952381</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="C96">
-        <v>0.5025161754133717</v>
+        <v>0.4920606601248885</v>
       </c>
       <c r="D96">
-        <v>0.5595238095238095</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E96">
-        <v>0.5152253349573691</v>
+        <v>0.4950859950859951</v>
       </c>
       <c r="F96">
-        <v>0.6097560975609756</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="G96">
-        <v>0.4602409638554217</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="H96">
-        <v>0.49</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5384615384615384</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="C97">
-        <v>0.5045349457584919</v>
+        <v>0.4938315121607332</v>
       </c>
       <c r="D97">
-        <v>0.550561797752809</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="E97">
-        <v>0.5181598062953995</v>
+        <v>0.5029726516052319</v>
       </c>
       <c r="F97">
-        <v>0.5802469135802469</v>
+        <v>0.6</v>
       </c>
       <c r="G97">
-        <v>0.4583835946924005</v>
+        <v>0.4994011976047904</v>
       </c>
       <c r="H97">
-        <v>0.49</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5180722891566265</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C98">
-        <v>0.5039661554732946</v>
+        <v>0.4930264993026499</v>
       </c>
       <c r="D98">
-        <v>0.5125</v>
+        <v>0.515625</v>
       </c>
       <c r="E98">
-        <v>0.5211097708082026</v>
+        <v>0.4988095238095238</v>
       </c>
       <c r="F98">
-        <v>0.5405405405405406</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="G98">
-        <v>0.4623655913978494</v>
+        <v>0.5060096153846154</v>
       </c>
       <c r="H98">
-        <v>0.494</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5643564356435643</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C99">
-        <v>0.5037541470228741</v>
+        <v>0.4929991356957649</v>
       </c>
       <c r="D99">
-        <v>0.5172413793103449</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="E99">
-        <v>0.5205811138014528</v>
+        <v>0.4922341696535245</v>
       </c>
       <c r="F99">
-        <v>0.5211267605633803</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="G99">
-        <v>0.4741896758703482</v>
+        <v>0.5054021608643458</v>
       </c>
       <c r="H99">
-        <v>0.484</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,22 +2974,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5408163265306123</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C100">
-        <v>0.5019954884608711</v>
+        <v>0.4939986282578875</v>
       </c>
       <c r="D100">
-        <v>0.5326086956521739</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="E100">
-        <v>0.5269607843137255</v>
+        <v>0.4927007299270073</v>
       </c>
       <c r="F100">
-        <v>0.5180722891566265</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="G100">
-        <v>0.4783653846153846</v>
+        <v>0.4993939393939394</v>
       </c>
       <c r="H100">
         <v>0.482</v>
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5783132530120482</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C101">
-        <v>0.5020597322348095</v>
+        <v>0.4944812362030905</v>
       </c>
       <c r="D101">
-        <v>0.6049382716049383</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="E101">
-        <v>0.5303398058252428</v>
+        <v>0.4957472660996355</v>
       </c>
       <c r="F101">
-        <v>0.4642857142857143</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="G101">
-        <v>0.4784172661870504</v>
+        <v>0.4957780458383595</v>
       </c>
       <c r="H101">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
     </row>
   </sheetData>
